--- a/Customers.xlsx
+++ b/Customers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="199">
   <si>
     <t>Date Export</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Jl. Musi No. 21, Surabaya</t>
   </si>
   <si>
-    <t>4378</t>
+    <t>2265</t>
   </si>
   <si>
     <t>2857057391</t>
@@ -76,22 +76,37 @@
     <t>Jakarta</t>
   </si>
   <si>
+    <t>RESELLER</t>
+  </si>
+  <si>
+    <t>Henri Euels</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
     <t>Hotel, Restaurant</t>
   </si>
   <si>
-    <t>RESELLER</t>
-  </si>
-  <si>
-    <t>Henri Euels</t>
-  </si>
-  <si>
-    <t>5077</t>
+    <t>0268-1412</t>
+  </si>
+  <si>
+    <t>Ddene Borsi</t>
+  </si>
+  <si>
+    <t>dborsi2@adobe.com</t>
+  </si>
+  <si>
+    <t>9334</t>
+  </si>
+  <si>
+    <t>4606836280</t>
   </si>
   <si>
     <t>Vinnie Hallor</t>
   </si>
   <si>
-    <t>5360</t>
+    <t>6797</t>
   </si>
   <si>
     <t>Lampung, Banten, Jakarta</t>
@@ -106,12 +121,15 @@
     <t>aflagg4@chicagotribune.com</t>
   </si>
   <si>
-    <t>4764</t>
+    <t>3310</t>
   </si>
   <si>
     <t>7686410471</t>
   </si>
   <si>
+    <t>Lampung, Jakarta</t>
+  </si>
+  <si>
     <t>0378-4884</t>
   </si>
   <si>
@@ -121,19 +139,22 @@
     <t>felstob5@google.co.jp</t>
   </si>
   <si>
-    <t>9699</t>
+    <t>3410</t>
   </si>
   <si>
     <t>9602288169</t>
   </si>
   <si>
-    <t>Lampung, Jakarta</t>
-  </si>
-  <si>
     <t>Jae Wones</t>
   </si>
   <si>
-    <t>850</t>
+    <t>5672</t>
+  </si>
+  <si>
+    <t>Jocelin Doidge</t>
+  </si>
+  <si>
+    <t>331</t>
   </si>
   <si>
     <t>0904-6266</t>
@@ -145,16 +166,19 @@
     <t>ohambling8@twitpic.com</t>
   </si>
   <si>
-    <t>5560</t>
+    <t>2103</t>
   </si>
   <si>
     <t>9916872863</t>
   </si>
   <si>
+    <t>Jawa Barat, Jawa Timur</t>
+  </si>
+  <si>
     <t>Louis Beadnall</t>
   </si>
   <si>
-    <t>3582</t>
+    <t>3676</t>
   </si>
   <si>
     <t>49999-711</t>
@@ -166,12 +190,27 @@
     <t>tmateja@yolasite.com</t>
   </si>
   <si>
-    <t>7521</t>
+    <t>6122</t>
   </si>
   <si>
     <t>3825433220</t>
   </si>
   <si>
+    <t>49993-860</t>
+  </si>
+  <si>
+    <t>Leila Sifleet</t>
+  </si>
+  <si>
+    <t>lsifleetb@oaic.gov.au</t>
+  </si>
+  <si>
+    <t>3346</t>
+  </si>
+  <si>
+    <t>2832363005</t>
+  </si>
+  <si>
     <t>10893-892</t>
   </si>
   <si>
@@ -181,7 +220,7 @@
     <t>nreedyhoughc@is.gd</t>
   </si>
   <si>
-    <t>4372</t>
+    <t>2418</t>
   </si>
   <si>
     <t>8616300572</t>
@@ -196,7 +235,7 @@
     <t>adonglesd@google.nl</t>
   </si>
   <si>
-    <t>8219</t>
+    <t>1101</t>
   </si>
   <si>
     <t>1356995323</t>
@@ -211,7 +250,7 @@
     <t>kscandroote@cbc.ca</t>
   </si>
   <si>
-    <t>3395</t>
+    <t>9478</t>
   </si>
   <si>
     <t>8806532628</t>
@@ -226,28 +265,49 @@
     <t>nkeatleyf@shutterfly.com</t>
   </si>
   <si>
-    <t>3144</t>
+    <t>7330</t>
   </si>
   <si>
     <t>3977011430</t>
   </si>
   <si>
+    <t>52533-124</t>
+  </si>
+  <si>
+    <t>Jillane Swaden</t>
+  </si>
+  <si>
+    <t>jswadeng@ocn.ne.jp</t>
+  </si>
+  <si>
+    <t>7088</t>
+  </si>
+  <si>
+    <t>4519135680</t>
+  </si>
+  <si>
     <t>Ryley Sabie</t>
   </si>
   <si>
-    <t>6116</t>
+    <t>7844</t>
+  </si>
+  <si>
+    <t>Robby Takle</t>
+  </si>
+  <si>
+    <t>2826</t>
   </si>
   <si>
     <t>Haleigh Shovelin</t>
   </si>
   <si>
-    <t>7419</t>
+    <t>1961</t>
   </si>
   <si>
     <t>Caldwell Feldharker</t>
   </si>
   <si>
-    <t>2990</t>
+    <t>4825</t>
   </si>
   <si>
     <t>49288-0724</t>
@@ -259,7 +319,7 @@
     <t>tdowryl@ebay.co.uk</t>
   </si>
   <si>
-    <t>7692</t>
+    <t>5689</t>
   </si>
   <si>
     <t>9228989820</t>
@@ -268,7 +328,7 @@
     <t>Timothee Parmer</t>
   </si>
   <si>
-    <t>2720</t>
+    <t>3632</t>
   </si>
   <si>
     <t>42808-410</t>
@@ -280,7 +340,7 @@
     <t>ncrambien@admin.ch</t>
   </si>
   <si>
-    <t>9740</t>
+    <t>1444</t>
   </si>
   <si>
     <t>7386476413</t>
@@ -295,7 +355,7 @@
     <t>rlansdowno@yale.edu</t>
   </si>
   <si>
-    <t>7266</t>
+    <t>2606</t>
   </si>
   <si>
     <t>5192575152</t>
@@ -304,13 +364,13 @@
     <t>Jo ann Crampin</t>
   </si>
   <si>
-    <t>4276</t>
+    <t>8629</t>
   </si>
   <si>
     <t>Dionis Pittoli</t>
   </si>
   <si>
-    <t>5126</t>
+    <t>9646</t>
   </si>
   <si>
     <t>64942-1225</t>
@@ -322,7 +382,7 @@
     <t>hgrigorianr@php.net</t>
   </si>
   <si>
-    <t>2505</t>
+    <t>4947</t>
   </si>
   <si>
     <t>7739193184</t>
@@ -331,7 +391,7 @@
     <t>Dede Bickerstaffe</t>
   </si>
   <si>
-    <t>6196</t>
+    <t>9072</t>
   </si>
   <si>
     <t>37000-392</t>
@@ -343,7 +403,7 @@
     <t>hellandt@ask.com</t>
   </si>
   <si>
-    <t>1749</t>
+    <t>8349</t>
   </si>
   <si>
     <t>7361288824</t>
@@ -358,7 +418,7 @@
     <t>arosenfieldu@webnode.com</t>
   </si>
   <si>
-    <t>2082</t>
+    <t>7531</t>
   </si>
   <si>
     <t>7411601519</t>
@@ -373,7 +433,7 @@
     <t>stillyv@bloomberg.com</t>
   </si>
   <si>
-    <t>1664</t>
+    <t>1412</t>
   </si>
   <si>
     <t>9379073755</t>
@@ -382,25 +442,40 @@
     <t>Mandy Leggen</t>
   </si>
   <si>
-    <t>327</t>
+    <t>4854</t>
   </si>
   <si>
     <t>Lucretia Santore</t>
   </si>
   <si>
-    <t>1086</t>
+    <t>7684</t>
   </si>
   <si>
     <t>Eveline Odam</t>
   </si>
   <si>
-    <t>7971</t>
+    <t>5991</t>
   </si>
   <si>
     <t>Thurstan Steen</t>
   </si>
   <si>
-    <t>2569</t>
+    <t>1658</t>
+  </si>
+  <si>
+    <t>49893-500</t>
+  </si>
+  <si>
+    <t>Godard Giraudel</t>
+  </si>
+  <si>
+    <t>ggiraudel10@plala.or.jp</t>
+  </si>
+  <si>
+    <t>6709</t>
+  </si>
+  <si>
+    <t>6115234046</t>
   </si>
   <si>
     <t>0615-3562</t>
@@ -412,34 +487,61 @@
     <t>rbiggin11@google.de</t>
   </si>
   <si>
-    <t>6557</t>
+    <t>5945</t>
   </si>
   <si>
     <t>9434065495</t>
   </si>
   <si>
+    <t>42291-600</t>
+  </si>
+  <si>
+    <t>Scot Guymer</t>
+  </si>
+  <si>
+    <t>sguymer12@vistaprint.com</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>8651760654</t>
+  </si>
+  <si>
     <t>Andriette Minster</t>
   </si>
   <si>
-    <t>1192</t>
+    <t>7515</t>
+  </si>
+  <si>
+    <t>Arabela Jenney</t>
+  </si>
+  <si>
+    <t>4036</t>
   </si>
   <si>
     <t>Bayard Chazerand</t>
   </si>
   <si>
-    <t>3030</t>
+    <t>1949</t>
   </si>
   <si>
     <t>Hanson Sorby</t>
   </si>
   <si>
-    <t>2381</t>
+    <t>1713</t>
   </si>
   <si>
     <t>Aura Trainor</t>
   </si>
   <si>
-    <t>9024</t>
+    <t>7424</t>
+  </si>
+  <si>
+    <t>Lorri Gerran</t>
+  </si>
+  <si>
+    <t>9458</t>
   </si>
   <si>
     <t>61786-032</t>
@@ -451,7 +553,7 @@
     <t>tdinnington19@barnesandnoble.com</t>
   </si>
   <si>
-    <t>9345</t>
+    <t>4782</t>
   </si>
   <si>
     <t>8387563561</t>
@@ -466,7 +568,7 @@
     <t>gsummerill1a@foxnews.com</t>
   </si>
   <si>
-    <t>3631</t>
+    <t>5838</t>
   </si>
   <si>
     <t>7902657415</t>
@@ -475,7 +577,7 @@
     <t>Daile Deegin</t>
   </si>
   <si>
-    <t>212</t>
+    <t>9677</t>
   </si>
   <si>
     <t>47335-903</t>
@@ -487,7 +589,7 @@
     <t>ddoerren1c@nba.com</t>
   </si>
   <si>
-    <t>7034</t>
+    <t>3981</t>
   </si>
   <si>
     <t>6715992673</t>
@@ -502,7 +604,7 @@
     <t>lmoorcraft1d@jugem.jp</t>
   </si>
   <si>
-    <t>9960</t>
+    <t>6429</t>
   </si>
   <si>
     <t>3349179999</t>
@@ -538,10 +640,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double"/>
-      <right style="double"/>
-      <top style="double"/>
-      <bottom style="double"/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -893,7 +995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L54"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="30" customWidth="1"/>
@@ -1011,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
@@ -1023,83 +1125,81 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J7" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="K8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
@@ -1129,63 +1229,65 @@
       <c r="K9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <v>6</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
@@ -1207,10 +1309,10 @@
         <v>2</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
@@ -1236,105 +1338,101 @@
         <v>52</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="G15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="G16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="J16" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
@@ -1342,107 +1440,125 @@
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="J17" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <v>14</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="E18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="J18" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <v>15</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J19" s="2" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <v>16</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="G20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J20" s="2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
@@ -1450,32 +1566,30 @@
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
@@ -1483,51 +1597,47 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <v>19</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="L23" s="2"/>
     </row>
@@ -1535,33 +1645,25 @@
       <c r="C24" s="2">
         <v>20</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="L24" s="2"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
@@ -1569,221 +1671,227 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <v>22</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="G26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="J26" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <v>23</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <v>24</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="E28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="G28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="J28" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L29" s="2"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <v>26</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>114</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <v>27</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <v>28</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="E32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="J32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
@@ -1791,71 +1899,85 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <v>30</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E34" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I34" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="J34" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <v>31</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E35" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="G35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I35" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="J35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="L35" s="2"/>
     </row>
@@ -1864,32 +1986,30 @@
         <v>32</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="L36" s="2"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
@@ -1897,21 +2017,21 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L37" s="2"/>
     </row>
@@ -1921,24 +2041,24 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
@@ -1947,23 +2067,25 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
@@ -1971,24 +2093,24 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.25">
@@ -1996,28 +2118,28 @@
         <v>37</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L41" s="2"/>
     </row>
@@ -2026,117 +2148,367 @@
         <v>38</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L42" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <v>39</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="E43" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F43" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="G43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I43" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="J43" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L43" s="2"/>
+      <c r="L43" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <v>40</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>157</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>159</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <v>41</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>160</v>
-      </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>162</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <v>42</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <v>43</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <v>44</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <v>45</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <v>46</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <v>47</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <v>48</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <v>49</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <v>50</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
